--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lif-Lifr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lif-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lif</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.16280936874981</v>
+        <v>2.867978666666667</v>
       </c>
       <c r="H2">
-        <v>2.16280936874981</v>
+        <v>8.603936000000001</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5389395658779439</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5730299235867837</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N2">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O2">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P2">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q2">
-        <v>61.33274499540151</v>
+        <v>82.99629601569778</v>
       </c>
       <c r="R2">
-        <v>61.33274499540151</v>
+        <v>746.96666414128</v>
       </c>
       <c r="S2">
-        <v>0.2564720981355903</v>
+        <v>0.1287617386466028</v>
       </c>
       <c r="T2">
-        <v>0.2564720981355903</v>
+        <v>0.1432038125733405</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.16280936874981</v>
+        <v>2.867978666666667</v>
       </c>
       <c r="H3">
-        <v>2.16280936874981</v>
+        <v>8.603936000000001</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.5389395658779439</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5730299235867837</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N3">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O3">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P3">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q3">
-        <v>70.50445453580365</v>
+        <v>102.4037680780693</v>
       </c>
       <c r="R3">
-        <v>70.50445453580365</v>
+        <v>921.633912702624</v>
       </c>
       <c r="S3">
-        <v>0.294824981077541</v>
+        <v>0.1588707912844903</v>
       </c>
       <c r="T3">
-        <v>0.294824981077541</v>
+        <v>0.17668993334211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.16280936874981</v>
+        <v>2.867978666666667</v>
       </c>
       <c r="H4">
-        <v>2.16280936874981</v>
+        <v>8.603936000000001</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.5389395658779439</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5730299235867837</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N4">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O4">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P4">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q4">
-        <v>29.97330669181494</v>
+        <v>55.30666846777601</v>
       </c>
       <c r="R4">
-        <v>29.97330669181494</v>
+        <v>497.760016209984</v>
       </c>
       <c r="S4">
-        <v>0.1253378901578215</v>
+        <v>0.08580362175819457</v>
       </c>
       <c r="T4">
-        <v>0.1253378901578215</v>
+        <v>0.09542746080882064</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.16280936874981</v>
+        <v>2.867978666666667</v>
       </c>
       <c r="H5">
-        <v>2.16280936874981</v>
+        <v>8.603936000000001</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.5389395658779439</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5730299235867837</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N5">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O5">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P5">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q5">
-        <v>43.22645899085106</v>
+        <v>60.85065669306312</v>
       </c>
       <c r="R5">
-        <v>43.22645899085106</v>
+        <v>547.655910237568</v>
       </c>
       <c r="S5">
-        <v>0.180757939876763</v>
+        <v>0.09440465092688478</v>
       </c>
       <c r="T5">
-        <v>0.180757939876763</v>
+        <v>0.1049931919177446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,991 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.867978666666667</v>
+      </c>
+      <c r="H6">
+        <v>8.603936000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.5389395658779439</v>
+      </c>
+      <c r="J6">
+        <v>0.5730299235867837</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>15.9793095</v>
+      </c>
+      <c r="N6">
+        <v>31.958619</v>
+      </c>
+      <c r="O6">
+        <v>0.1319234433010128</v>
+      </c>
+      <c r="P6">
+        <v>0.09199436674232302</v>
+      </c>
+      <c r="Q6">
+        <v>45.82831875406401</v>
+      </c>
+      <c r="R6">
+        <v>274.969912524384</v>
+      </c>
+      <c r="S6">
+        <v>0.07109876326177138</v>
+      </c>
+      <c r="T6">
+        <v>0.05271552494476792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3116546666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.9349639999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.05856495123528416</v>
+      </c>
+      <c r="J7">
+        <v>0.06226944847990426</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>28.93895166666666</v>
+      </c>
+      <c r="N7">
+        <v>86.81685499999999</v>
+      </c>
+      <c r="O7">
+        <v>0.2389168411431201</v>
+      </c>
+      <c r="P7">
+        <v>0.2499063428956389</v>
+      </c>
+      <c r="Q7">
+        <v>9.018959335357776</v>
+      </c>
+      <c r="R7">
+        <v>81.17063401821999</v>
+      </c>
+      <c r="S7">
+        <v>0.01399215315083496</v>
+      </c>
+      <c r="T7">
+        <v>0.01556153014374127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3116546666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.9349639999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.05856495123528416</v>
+      </c>
+      <c r="J8">
+        <v>0.06226944847990426</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>35.705903</v>
+      </c>
+      <c r="N8">
+        <v>107.117709</v>
+      </c>
+      <c r="O8">
+        <v>0.2947840562154431</v>
+      </c>
+      <c r="P8">
+        <v>0.3083432925040795</v>
+      </c>
+      <c r="Q8">
+        <v>11.12791129749733</v>
+      </c>
+      <c r="R8">
+        <v>100.151201677476</v>
+      </c>
+      <c r="S8">
+        <v>0.01726401387719669</v>
+      </c>
+      <c r="T8">
+        <v>0.01920036676670683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3116546666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.9349639999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.05856495123528416</v>
+      </c>
+      <c r="J9">
+        <v>0.06226944847990426</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.284198</v>
+      </c>
+      <c r="N9">
+        <v>57.852594</v>
+      </c>
+      <c r="O9">
+        <v>0.1592082437265831</v>
+      </c>
+      <c r="P9">
+        <v>0.1665313745074753</v>
+      </c>
+      <c r="Q9">
+        <v>6.010010299624</v>
+      </c>
+      <c r="R9">
+        <v>54.09009269661599</v>
+      </c>
+      <c r="S9">
+        <v>0.009324023030102574</v>
+      </c>
+      <c r="T9">
+        <v>0.01036981684518088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3116546666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.9349639999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.05856495123528416</v>
+      </c>
+      <c r="J10">
+        <v>0.06226944847990426</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>21.21726266666667</v>
+      </c>
+      <c r="N10">
+        <v>63.651788</v>
+      </c>
+      <c r="O10">
+        <v>0.1751674156138409</v>
+      </c>
+      <c r="P10">
+        <v>0.1832246233504832</v>
+      </c>
+      <c r="Q10">
+        <v>6.61245892395911</v>
+      </c>
+      <c r="R10">
+        <v>59.51213031563199</v>
+      </c>
+      <c r="S10">
+        <v>0.01025867115343534</v>
+      </c>
+      <c r="T10">
+        <v>0.01140929624397278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3116546666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.9349639999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.05856495123528416</v>
+      </c>
+      <c r="J11">
+        <v>0.06226944847990426</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.9793095</v>
+      </c>
+      <c r="N11">
+        <v>31.958619</v>
+      </c>
+      <c r="O11">
+        <v>0.1319234433010128</v>
+      </c>
+      <c r="P11">
+        <v>0.09199436674232302</v>
+      </c>
+      <c r="Q11">
+        <v>4.980026375785999</v>
+      </c>
+      <c r="R11">
+        <v>29.880158254716</v>
+      </c>
+      <c r="S11">
+        <v>0.007726090023714589</v>
+      </c>
+      <c r="T11">
+        <v>0.005728438480302501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.16280936874981</v>
-      </c>
-      <c r="H6">
-        <v>2.16280936874981</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>15.7679471506722</v>
-      </c>
-      <c r="N6">
-        <v>15.7679471506722</v>
-      </c>
-      <c r="O6">
-        <v>0.1426070907522843</v>
-      </c>
-      <c r="P6">
-        <v>0.1426070907522843</v>
-      </c>
-      <c r="Q6">
-        <v>34.10306382342571</v>
-      </c>
-      <c r="R6">
-        <v>34.10306382342571</v>
-      </c>
-      <c r="S6">
-        <v>0.1426070907522843</v>
-      </c>
-      <c r="T6">
-        <v>0.1426070907522843</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.192134</v>
+      </c>
+      <c r="H12">
+        <v>3.576402</v>
+      </c>
+      <c r="I12">
+        <v>0.2240212550726796</v>
+      </c>
+      <c r="J12">
+        <v>0.2381916096046763</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>28.93895166666666</v>
+      </c>
+      <c r="N12">
+        <v>86.81685499999999</v>
+      </c>
+      <c r="O12">
+        <v>0.2389168411431201</v>
+      </c>
+      <c r="P12">
+        <v>0.2499063428956389</v>
+      </c>
+      <c r="Q12">
+        <v>34.49910820619</v>
+      </c>
+      <c r="R12">
+        <v>310.4919738557099</v>
+      </c>
+      <c r="S12">
+        <v>0.05352245061088177</v>
+      </c>
+      <c r="T12">
+        <v>0.05952559406473039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.192134</v>
+      </c>
+      <c r="H13">
+        <v>3.576402</v>
+      </c>
+      <c r="I13">
+        <v>0.2240212550726796</v>
+      </c>
+      <c r="J13">
+        <v>0.2381916096046763</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>35.705903</v>
+      </c>
+      <c r="N13">
+        <v>107.117709</v>
+      </c>
+      <c r="O13">
+        <v>0.2947840562154431</v>
+      </c>
+      <c r="P13">
+        <v>0.3083432925040795</v>
+      </c>
+      <c r="Q13">
+        <v>42.566220967002</v>
+      </c>
+      <c r="R13">
+        <v>383.095988703018</v>
+      </c>
+      <c r="S13">
+        <v>0.06603789424879888</v>
+      </c>
+      <c r="T13">
+        <v>0.07344478515235223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.192134</v>
+      </c>
+      <c r="H14">
+        <v>3.576402</v>
+      </c>
+      <c r="I14">
+        <v>0.2240212550726796</v>
+      </c>
+      <c r="J14">
+        <v>0.2381916096046763</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.284198</v>
+      </c>
+      <c r="N14">
+        <v>57.852594</v>
+      </c>
+      <c r="O14">
+        <v>0.1592082437265831</v>
+      </c>
+      <c r="P14">
+        <v>0.1665313745074753</v>
+      </c>
+      <c r="Q14">
+        <v>22.989348098532</v>
+      </c>
+      <c r="R14">
+        <v>206.904132886788</v>
+      </c>
+      <c r="S14">
+        <v>0.03566603057754621</v>
+      </c>
+      <c r="T14">
+        <v>0.03966637614361471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.192134</v>
+      </c>
+      <c r="H15">
+        <v>3.576402</v>
+      </c>
+      <c r="I15">
+        <v>0.2240212550726796</v>
+      </c>
+      <c r="J15">
+        <v>0.2381916096046763</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.21726266666667</v>
+      </c>
+      <c r="N15">
+        <v>63.651788</v>
+      </c>
+      <c r="O15">
+        <v>0.1751674156138409</v>
+      </c>
+      <c r="P15">
+        <v>0.1832246233504832</v>
+      </c>
+      <c r="Q15">
+        <v>25.293820211864</v>
+      </c>
+      <c r="R15">
+        <v>227.644381906776</v>
+      </c>
+      <c r="S15">
+        <v>0.03924122429365032</v>
+      </c>
+      <c r="T15">
+        <v>0.04364256795506215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.192134</v>
+      </c>
+      <c r="H16">
+        <v>3.576402</v>
+      </c>
+      <c r="I16">
+        <v>0.2240212550726796</v>
+      </c>
+      <c r="J16">
+        <v>0.2381916096046763</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.9793095</v>
+      </c>
+      <c r="N16">
+        <v>31.958619</v>
+      </c>
+      <c r="O16">
+        <v>0.1319234433010128</v>
+      </c>
+      <c r="P16">
+        <v>0.09199436674232302</v>
+      </c>
+      <c r="Q16">
+        <v>19.049478151473</v>
+      </c>
+      <c r="R16">
+        <v>114.296868908838</v>
+      </c>
+      <c r="S16">
+        <v>0.02955365534180237</v>
+      </c>
+      <c r="T16">
+        <v>0.02191228628891682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.9497544999999999</v>
+      </c>
+      <c r="H17">
+        <v>1.899509</v>
+      </c>
+      <c r="I17">
+        <v>0.1784742278140924</v>
+      </c>
+      <c r="J17">
+        <v>0.1265090183286356</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>28.93895166666666</v>
+      </c>
+      <c r="N17">
+        <v>86.81685499999999</v>
+      </c>
+      <c r="O17">
+        <v>0.2389168411431201</v>
+      </c>
+      <c r="P17">
+        <v>0.2499063428956389</v>
+      </c>
+      <c r="Q17">
+        <v>27.48489957069916</v>
+      </c>
+      <c r="R17">
+        <v>164.909397424195</v>
+      </c>
+      <c r="S17">
+        <v>0.04264049873480054</v>
+      </c>
+      <c r="T17">
+        <v>0.03161540611382668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.9497544999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.899509</v>
+      </c>
+      <c r="I18">
+        <v>0.1784742278140924</v>
+      </c>
+      <c r="J18">
+        <v>0.1265090183286356</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>35.705903</v>
+      </c>
+      <c r="N18">
+        <v>107.117709</v>
+      </c>
+      <c r="O18">
+        <v>0.2947840562154431</v>
+      </c>
+      <c r="P18">
+        <v>0.3083432925040795</v>
+      </c>
+      <c r="Q18">
+        <v>33.9118420508135</v>
+      </c>
+      <c r="R18">
+        <v>203.471052304881</v>
+      </c>
+      <c r="S18">
+        <v>0.0526113568049572</v>
+      </c>
+      <c r="T18">
+        <v>0.03900820724291045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.9497544999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.899509</v>
+      </c>
+      <c r="I19">
+        <v>0.1784742278140924</v>
+      </c>
+      <c r="J19">
+        <v>0.1265090183286356</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.284198</v>
+      </c>
+      <c r="N19">
+        <v>57.852594</v>
+      </c>
+      <c r="O19">
+        <v>0.1592082437265831</v>
+      </c>
+      <c r="P19">
+        <v>0.1665313745074753</v>
+      </c>
+      <c r="Q19">
+        <v>18.315253829391</v>
+      </c>
+      <c r="R19">
+        <v>109.891522976346</v>
+      </c>
+      <c r="S19">
+        <v>0.02841456836073974</v>
+      </c>
+      <c r="T19">
+        <v>0.02106772070985908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.9497544999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.899509</v>
+      </c>
+      <c r="I20">
+        <v>0.1784742278140924</v>
+      </c>
+      <c r="J20">
+        <v>0.1265090183286356</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>21.21726266666667</v>
+      </c>
+      <c r="N20">
+        <v>63.651788</v>
+      </c>
+      <c r="O20">
+        <v>0.1751674156138409</v>
+      </c>
+      <c r="P20">
+        <v>0.1832246233504832</v>
+      </c>
+      <c r="Q20">
+        <v>20.15119069534866</v>
+      </c>
+      <c r="R20">
+        <v>120.907144172092</v>
+      </c>
+      <c r="S20">
+        <v>0.03126286923987044</v>
+      </c>
+      <c r="T20">
+        <v>0.02317956723370363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.9497544999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.899509</v>
+      </c>
+      <c r="I21">
+        <v>0.1784742278140924</v>
+      </c>
+      <c r="J21">
+        <v>0.1265090183286356</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.9793095</v>
+      </c>
+      <c r="N21">
+        <v>31.958619</v>
+      </c>
+      <c r="O21">
+        <v>0.1319234433010128</v>
+      </c>
+      <c r="P21">
+        <v>0.09199436674232302</v>
+      </c>
+      <c r="Q21">
+        <v>15.17642110451775</v>
+      </c>
+      <c r="R21">
+        <v>60.70568441807099</v>
+      </c>
+      <c r="S21">
+        <v>0.02354493467372446</v>
+      </c>
+      <c r="T21">
+        <v>0.01163811702833577</v>
       </c>
     </row>
   </sheetData>
